--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\Roots\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBC469-6690-4359-9756-26B82BB2F7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63069E3-2A78-48D7-AAB6-EE30AAA6EC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="4680" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -87,6 +87,22 @@
   </si>
   <si>
     <t>ResourceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非交互事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARRY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,21 +444,21 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +485,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -489,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -515,71 +531,80 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G26" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G34" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G38" s="1"/>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63069E3-2A78-48D7-AAB6-EE30AAA6EC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07937091-32E3-4100-A751-84944C5E2F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="3090" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -103,6 +103,62 @@
   </si>
   <si>
     <t>MARRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIESON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_CURR_EVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_MONEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_NEXT_EVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一代获得新的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一代获得新的事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,20 +608,64 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>20</v>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>21</v>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -606,6 +706,16 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G38" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07937091-32E3-4100-A751-84944C5E2F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7018DD-670D-433D-83B9-CEB75E0626FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="3090" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3930" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIESON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>属性成长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +155,10 @@
   </si>
   <si>
     <t>下一代获得新的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIE_SON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -625,47 +625,47 @@
         <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7018DD-670D-433D-83B9-CEB75E0626FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A233C3-B70C-4D55-865B-C8ED6D856EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3930" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="1965" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -159,6 +159,257 @@
   </si>
   <si>
     <t>DIE_SON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THIS_HAVEDONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL_HAVEDONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代曾触发过事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史曾触发过事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_CHILDREN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVETAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄介于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有小孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮触发过特定事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局触发过特定事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足属性需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttriType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙韵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心属性成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAGACTIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGECHANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从掉落组中抽取物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TATTRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要资源的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要tag的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需属性的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需属性的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局触发过的事件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮触发过的事件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无填0，有填1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释2</t>
+  </si>
+  <si>
+    <t>解释1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINGLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHENSHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOWEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XINGYUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUIQI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XIANYUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOGUANG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,13 +463,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,7 +767,7 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,15 +786,15 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -560,8 +813,14 @@
       <c r="K2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -587,7 +846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -598,10 +857,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -612,7 +871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
@@ -620,7 +879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
@@ -628,7 +887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
@@ -636,7 +895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
@@ -644,7 +903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -652,7 +911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
@@ -660,7 +919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
@@ -668,54 +927,325 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="L31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G38" s="1"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="G36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="3">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="3">
+        <v>6</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="3">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="3">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+      <c r="G43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A233C3-B70C-4D55-865B-C8ED6D856EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB5223-CBB3-4786-ABBD-0319D6C64CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1965" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="3450" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -410,6 +410,22 @@
   </si>
   <si>
     <t>FOGUANG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIVE_BIRTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生小孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加TAG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,12 +1000,20 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘文韬\Desktop\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB5223-CBB3-4786-ABBD-0319D6C64CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86649208-9ACD-40A3-9F1C-F2AD90621C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="3450" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5844" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非交互事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GROWTH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仙韵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,10 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,6 +414,90 @@
   </si>
   <si>
     <t>加TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USEHEART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取道心的属性用作临时属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENEVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_PARTENER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴侣情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,12 +529,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -479,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +568,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,24 +851,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +895,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -830,13 +915,13 @@
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -862,183 +947,178 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G7" s="1" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G9" s="1" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G14" s="2" t="s">
+      <c r="J14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G17" s="1" t="s">
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G18" s="1" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G19" s="1" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L25" s="2" t="s">
         <v>87</v>
       </c>
@@ -1046,79 +1126,86 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>85</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G27" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="G31" s="1"/>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="L31" s="2" t="s">
         <v>78</v>
       </c>
@@ -1126,150 +1213,247 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="3" t="s">
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="3">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G38" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I38" s="3">
+        <v>4</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="G39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="3">
+        <v>6</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="3">
+        <v>7</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="3">
+        <v>8</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43" s="3">
+        <v>9</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="5">
         <v>1</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J46" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="G47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="5">
         <v>2</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="J47" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="5">
         <v>3</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G35" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J48" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="5">
         <v>4</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-      <c r="G36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="J49" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="5">
         <v>5</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="J50" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="5">
         <v>6</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I38" s="3">
-        <v>7</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I39" s="3">
-        <v>8</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G42" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J51" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-      <c r="G43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G45" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
+      <c r="J59" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
